--- a/Original/Tables/NewTU_Civilizations_ORG.xlsx
+++ b/Original/Tables/NewTU_Civilizations_ORG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\TABLES NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\Python\NEW24\CivV_DatabaseConverter\Original\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Civilizations" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DisableTechs" sheetId="4" r:id="rId4"/>
     <sheet name="FreeBuildingClasses" sheetId="5" r:id="rId5"/>
     <sheet name="FreeTechs" sheetId="6" r:id="rId6"/>
-    <sheet name="Leaders" sheetId="7" r:id="rId7"/>
+    <sheet name="_Leaders" sheetId="7" r:id="rId7"/>
     <sheet name="Religions" sheetId="8" r:id="rId8"/>
     <sheet name="Start_Along_Ocean" sheetId="9" r:id="rId9"/>
     <sheet name="Start_Along_River" sheetId="10" r:id="rId10"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="854">
   <si>
     <t>ID</t>
   </si>
@@ -2599,13 +2599,16 @@
   </si>
   <si>
     <t>UNITAI_SETTLE</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2644,8 +2647,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2667,6 +2678,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2732,7 +2749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2842,11 +2859,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3129,11 +3176,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6149,7 +6196,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="15" bestFit="1" customWidth="1"/>
@@ -6164,227 +6211,227 @@
         <v>840</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>346</v>
       </c>
@@ -6405,14 +6452,14 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>649</v>
       </c>
@@ -6420,12 +6467,12 @@
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
@@ -6433,12 +6480,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>453</v>
       </c>
@@ -6446,7 +6493,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -6454,12 +6501,12 @@
         <v>843</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
@@ -6467,22 +6514,22 @@
         <v>843</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>486</v>
       </c>
@@ -6490,47 +6537,47 @@
         <v>844</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>368</v>
       </c>
@@ -6538,7 +6585,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
@@ -6546,12 +6593,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
@@ -6559,22 +6606,22 @@
         <v>844</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>354</v>
       </c>
@@ -6582,7 +6629,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>582</v>
       </c>
@@ -6590,7 +6637,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>526</v>
       </c>
@@ -6598,17 +6645,17 @@
         <v>845</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>593</v>
       </c>
@@ -6616,22 +6663,22 @@
         <v>846</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>306</v>
       </c>
@@ -6639,22 +6686,22 @@
         <v>847</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>536</v>
       </c>
@@ -6662,27 +6709,27 @@
         <v>847</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>346</v>
       </c>
@@ -6703,7 +6750,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
@@ -6711,7 +6758,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>649</v>
       </c>
@@ -6725,17 +6772,17 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="45"/>
     </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
@@ -6743,17 +6790,17 @@
         <v>847</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
@@ -6761,37 +6808,37 @@
         <v>847</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
@@ -6802,32 +6849,32 @@
         <v>844</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
@@ -6838,92 +6885,92 @@
         <v>843</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>317</v>
       </c>
@@ -6931,7 +6978,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
@@ -6939,27 +6986,27 @@
         <v>847</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>637</v>
       </c>
@@ -6967,12 +7014,12 @@
         <v>843</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>346</v>
       </c>
@@ -6993,7 +7040,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="15" bestFit="1" customWidth="1"/>
@@ -7008,212 +7055,212 @@
         <v>849</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>626</v>
       </c>
@@ -7221,17 +7268,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>346</v>
       </c>
@@ -7252,7 +7299,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="15" bestFit="1" customWidth="1"/>
@@ -7261,7 +7308,7 @@
     <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>649</v>
       </c>
@@ -7275,7 +7322,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -7289,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
@@ -7303,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
@@ -7317,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>453</v>
       </c>
@@ -7331,7 +7378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -7345,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
@@ -7359,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
@@ -7373,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
@@ -7387,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
@@ -7401,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
@@ -7415,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>486</v>
       </c>
@@ -7429,7 +7476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>411</v>
       </c>
@@ -7443,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
@@ -7457,7 +7504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
@@ -7471,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>496</v>
       </c>
@@ -7485,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
@@ -7499,7 +7546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>215</v>
       </c>
@@ -7513,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
@@ -7527,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
@@ -7541,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>368</v>
       </c>
@@ -7555,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
@@ -7569,7 +7616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>571</v>
       </c>
@@ -7583,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
@@ -7597,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
@@ -7611,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
@@ -7625,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>516</v>
       </c>
@@ -7639,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>354</v>
       </c>
@@ -7653,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>582</v>
       </c>
@@ -7667,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>526</v>
       </c>
@@ -7681,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>273</v>
       </c>
@@ -7695,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
@@ -7709,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>593</v>
       </c>
@@ -7723,7 +7770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>395</v>
       </c>
@@ -7737,7 +7784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>604</v>
       </c>
@@ -7751,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
@@ -7765,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>306</v>
       </c>
@@ -7779,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>317</v>
       </c>
@@ -7793,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
@@ -7807,7 +7854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>382</v>
       </c>
@@ -7821,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>536</v>
       </c>
@@ -7835,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>615</v>
       </c>
@@ -7849,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>626</v>
       </c>
@@ -7863,7 +7910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>637</v>
       </c>
@@ -7877,7 +7924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>339</v>
       </c>
@@ -7891,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>346</v>
       </c>
@@ -7903,13 +7950,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9120,22 +9170,28 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:A143">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="15" bestFit="1" customWidth="1"/>
@@ -9143,7 +9199,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>649</v>
       </c>
@@ -9154,7 +9210,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -9165,7 +9221,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
@@ -9176,7 +9232,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>140</v>
       </c>
@@ -9187,7 +9243,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>546</v>
       </c>
@@ -9198,7 +9254,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>453</v>
       </c>
@@ -9209,7 +9265,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>154</v>
       </c>
@@ -9220,7 +9276,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>439</v>
       </c>
@@ -9231,7 +9287,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>560</v>
       </c>
@@ -9242,7 +9298,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>466</v>
       </c>
@@ -9253,7 +9309,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>466</v>
       </c>
@@ -9264,7 +9320,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>476</v>
       </c>
@@ -9275,7 +9331,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>476</v>
       </c>
@@ -9286,7 +9342,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>486</v>
       </c>
@@ -9297,7 +9353,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>168</v>
       </c>
@@ -9308,7 +9364,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>411</v>
       </c>
@@ -9319,7 +9375,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>411</v>
       </c>
@@ -9330,7 +9386,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>182</v>
       </c>
@@ -9341,7 +9397,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>193</v>
       </c>
@@ -9352,7 +9408,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>193</v>
       </c>
@@ -9363,7 +9419,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>496</v>
       </c>
@@ -9374,7 +9430,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>204</v>
       </c>
@@ -9385,7 +9441,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>215</v>
       </c>
@@ -9396,7 +9452,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>226</v>
       </c>
@@ -9407,7 +9463,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>226</v>
       </c>
@@ -9418,7 +9474,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>506</v>
       </c>
@@ -9429,7 +9485,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>506</v>
       </c>
@@ -9440,7 +9496,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>368</v>
       </c>
@@ -9451,7 +9507,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>240</v>
       </c>
@@ -9462,7 +9518,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>571</v>
       </c>
@@ -9473,7 +9529,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>251</v>
       </c>
@@ -9484,7 +9540,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>262</v>
       </c>
@@ -9495,7 +9551,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>262</v>
       </c>
@@ -9506,7 +9562,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>425</v>
       </c>
@@ -9517,7 +9573,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>425</v>
       </c>
@@ -9528,7 +9584,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>516</v>
       </c>
@@ -9539,7 +9595,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>354</v>
       </c>
@@ -9550,7 +9606,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>354</v>
       </c>
@@ -9561,7 +9617,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>582</v>
       </c>
@@ -9572,7 +9628,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>526</v>
       </c>
@@ -9583,7 +9639,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>273</v>
       </c>
@@ -9594,7 +9650,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>273</v>
       </c>
@@ -9605,7 +9661,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>284</v>
       </c>
@@ -9616,7 +9672,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>593</v>
       </c>
@@ -9627,7 +9683,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>395</v>
       </c>
@@ -9638,7 +9694,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>604</v>
       </c>
@@ -9649,7 +9705,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>295</v>
       </c>
@@ -9660,7 +9716,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>295</v>
       </c>
@@ -9671,7 +9727,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>306</v>
       </c>
@@ -9682,7 +9738,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>317</v>
       </c>
@@ -9693,7 +9749,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>615</v>
       </c>
@@ -9704,7 +9760,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>615</v>
       </c>
@@ -9715,7 +9771,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>328</v>
       </c>
@@ -9726,7 +9782,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>382</v>
       </c>
@@ -9737,7 +9793,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>382</v>
       </c>
@@ -9748,7 +9804,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>536</v>
       </c>
@@ -9759,7 +9815,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>536</v>
       </c>
@@ -9770,7 +9826,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>626</v>
       </c>
@@ -9781,7 +9837,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>626</v>
       </c>
@@ -9792,7 +9848,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>637</v>
       </c>
@@ -9803,7 +9859,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>339</v>
       </c>
@@ -9811,7 +9867,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>339</v>
       </c>
@@ -9819,7 +9875,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>339</v>
       </c>
@@ -9827,7 +9883,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>339</v>
       </c>
@@ -9835,7 +9891,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>339</v>
       </c>
@@ -9843,7 +9899,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>339</v>
       </c>
@@ -9851,7 +9907,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>339</v>
       </c>
@@ -9859,7 +9915,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
         <v>346</v>
       </c>
@@ -9867,7 +9923,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
         <v>346</v>
       </c>
@@ -9875,7 +9931,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
         <v>346</v>
       </c>
@@ -9883,7 +9939,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
         <v>346</v>
       </c>
@@ -9891,7 +9947,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
         <v>346</v>
       </c>
@@ -9899,7 +9955,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
         <v>346</v>
       </c>
@@ -9907,7 +9963,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
         <v>346</v>
       </c>
@@ -9915,7 +9971,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
         <v>346</v>
       </c>
@@ -9923,7 +9979,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
         <v>346</v>
       </c>
@@ -9931,7 +9987,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
         <v>346</v>
       </c>
@@ -9939,7 +9995,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
         <v>346</v>
       </c>
@@ -9947,7 +10003,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
         <v>346</v>
       </c>
@@ -9955,7 +10011,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
         <v>346</v>
       </c>
@@ -9963,7 +10019,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
         <v>346</v>
       </c>
@@ -9971,7 +10027,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
         <v>346</v>
       </c>
@@ -9979,7 +10035,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
         <v>346</v>
       </c>
@@ -9987,7 +10043,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
         <v>346</v>
       </c>
@@ -9995,7 +10051,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
         <v>346</v>
       </c>
@@ -10003,7 +10059,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="36" t="s">
         <v>346</v>
       </c>
@@ -10011,7 +10067,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
         <v>346</v>
       </c>
@@ -10019,7 +10075,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
         <v>346</v>
       </c>
@@ -10027,7 +10083,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
         <v>346</v>
       </c>
@@ -10035,7 +10091,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
         <v>346</v>
       </c>
@@ -10043,7 +10099,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
         <v>346</v>
       </c>
@@ -10051,7 +10107,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="36" t="s">
         <v>346</v>
       </c>
@@ -10059,7 +10115,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
         <v>346</v>
       </c>
@@ -10067,7 +10123,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
         <v>346</v>
       </c>
@@ -10075,7 +10131,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
         <v>346</v>
       </c>
@@ -10083,7 +10139,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
         <v>346</v>
       </c>
@@ -10091,7 +10147,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
         <v>346</v>
       </c>
@@ -10099,7 +10155,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
         <v>346</v>
       </c>
@@ -10107,7 +10163,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
         <v>346</v>
       </c>
@@ -10115,7 +10171,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="36" t="s">
         <v>346</v>
       </c>
@@ -10123,7 +10179,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
         <v>346</v>
       </c>
@@ -10131,7 +10187,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
         <v>346</v>
       </c>
@@ -10139,7 +10195,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
         <v>346</v>
       </c>
@@ -10147,7 +10203,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
         <v>346</v>
       </c>
@@ -10155,7 +10211,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
         <v>346</v>
       </c>
@@ -10163,7 +10219,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
         <v>346</v>
       </c>
@@ -10171,7 +10227,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
         <v>346</v>
       </c>
@@ -10182,7 +10238,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
         <v>346</v>
       </c>
@@ -10193,7 +10249,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
         <v>346</v>
       </c>
@@ -10204,7 +10260,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="36" t="s">
         <v>346</v>
       </c>
@@ -10215,7 +10271,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
         <v>346</v>
       </c>
@@ -10226,7 +10282,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
         <v>346</v>
       </c>
@@ -10237,7 +10293,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
         <v>346</v>
       </c>
@@ -10249,29 +10305,35 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:A114">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>649</v>
       </c>
@@ -10279,7 +10341,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -10511,383 +10573,392 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B46" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>346</v>
       </c>
@@ -10899,390 +10970,399 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+    </row>
+    <row r="2" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="45" t="s">
+        <v>853</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B46" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>346</v>
       </c>
@@ -11296,29 +11376,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:2" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -11326,7 +11406,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
@@ -11334,7 +11414,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
@@ -11342,7 +11422,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>453</v>
       </c>
@@ -11350,7 +11430,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -11358,7 +11438,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
@@ -11366,7 +11446,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
@@ -11374,7 +11454,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
@@ -11382,7 +11462,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
@@ -11390,7 +11470,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
@@ -11398,7 +11478,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>486</v>
       </c>
@@ -11406,7 +11486,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>411</v>
       </c>
@@ -11414,7 +11494,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
@@ -11422,7 +11502,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
@@ -11430,7 +11510,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>496</v>
       </c>
@@ -11438,7 +11518,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
@@ -11446,7 +11526,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>215</v>
       </c>
@@ -11454,7 +11534,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
@@ -11462,7 +11542,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
@@ -11470,7 +11550,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>368</v>
       </c>
@@ -11478,7 +11558,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
@@ -11486,7 +11566,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>571</v>
       </c>
@@ -11494,7 +11574,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
@@ -11502,7 +11582,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
@@ -11510,7 +11590,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
@@ -11518,7 +11598,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>516</v>
       </c>
@@ -11526,7 +11606,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>354</v>
       </c>
@@ -11534,7 +11614,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>582</v>
       </c>
@@ -11542,7 +11622,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>526</v>
       </c>
@@ -11550,7 +11630,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>273</v>
       </c>
@@ -11558,7 +11638,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
@@ -11566,7 +11646,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>593</v>
       </c>
@@ -11574,7 +11654,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>395</v>
       </c>
@@ -11582,7 +11662,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>604</v>
       </c>
@@ -11590,7 +11670,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
@@ -11598,7 +11678,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>306</v>
       </c>
@@ -11606,7 +11686,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>317</v>
       </c>
@@ -11614,7 +11694,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
@@ -11622,7 +11702,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>382</v>
       </c>
@@ -11630,7 +11710,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>536</v>
       </c>
@@ -11638,7 +11718,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>615</v>
       </c>
@@ -11646,7 +11726,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>626</v>
       </c>
@@ -11654,7 +11734,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>637</v>
       </c>
@@ -11662,7 +11742,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>339</v>
       </c>
@@ -11670,7 +11750,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>346</v>
       </c>
@@ -11694,14 +11774,14 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>649</v>
       </c>
@@ -11709,7 +11789,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -11717,7 +11797,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
@@ -11725,7 +11805,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
@@ -11733,7 +11813,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>453</v>
       </c>
@@ -11741,7 +11821,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -11749,7 +11829,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
@@ -11757,7 +11837,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
@@ -11765,7 +11845,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
@@ -11773,7 +11853,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
@@ -11781,7 +11861,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
@@ -11789,7 +11869,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>486</v>
       </c>
@@ -11797,7 +11877,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>411</v>
       </c>
@@ -11805,7 +11885,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
@@ -11813,7 +11893,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
@@ -11821,7 +11901,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>496</v>
       </c>
@@ -11829,7 +11909,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
@@ -11837,7 +11917,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>215</v>
       </c>
@@ -11845,7 +11925,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
@@ -11853,7 +11933,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
@@ -11861,7 +11941,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>368</v>
       </c>
@@ -11869,7 +11949,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
@@ -11877,7 +11957,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>571</v>
       </c>
@@ -11885,7 +11965,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
@@ -11893,7 +11973,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
@@ -11901,7 +11981,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
@@ -11909,7 +11989,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>516</v>
       </c>
@@ -11917,7 +11997,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>354</v>
       </c>
@@ -11925,7 +12005,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>582</v>
       </c>
@@ -11933,7 +12013,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>526</v>
       </c>
@@ -11941,7 +12021,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>273</v>
       </c>
@@ -11949,7 +12029,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
@@ -11957,7 +12037,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>593</v>
       </c>
@@ -11965,7 +12045,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>395</v>
       </c>
@@ -11973,7 +12053,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>604</v>
       </c>
@@ -11981,7 +12061,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
@@ -11989,7 +12069,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>306</v>
       </c>
@@ -11997,7 +12077,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>317</v>
       </c>
@@ -12005,7 +12085,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
@@ -12013,7 +12093,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>382</v>
       </c>
@@ -12021,7 +12101,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>536</v>
       </c>
@@ -12029,7 +12109,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>615</v>
       </c>
@@ -12037,7 +12117,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>626</v>
       </c>
@@ -12045,7 +12125,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>637</v>
       </c>
@@ -12053,12 +12133,12 @@
         <v>827</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>346</v>
       </c>
@@ -12079,7 +12159,7 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="15" bestFit="1" customWidth="1"/>
@@ -12094,42 +12174,42 @@
         <v>839</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>466</v>
       </c>
@@ -12137,7 +12217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>476</v>
       </c>
@@ -12145,17 +12225,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>411</v>
       </c>
@@ -12163,12 +12243,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
@@ -12176,42 +12256,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>571</v>
       </c>
@@ -12219,12 +12299,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
@@ -12232,7 +12312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>425</v>
       </c>
@@ -12240,27 +12320,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>273</v>
       </c>
@@ -12268,17 +12348,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>395</v>
       </c>
@@ -12286,7 +12366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>604</v>
       </c>
@@ -12294,27 +12374,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>382</v>
       </c>
@@ -12322,17 +12402,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>626</v>
       </c>
@@ -12340,17 +12420,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>346</v>
       </c>

--- a/Original/Tables/NewTU_Civilizations_ORG.xlsx
+++ b/Original/Tables/NewTU_Civilizations_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Civilizations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="FreeBuildingClasses" sheetId="5" r:id="rId5"/>
     <sheet name="FreeTechs" sheetId="6" r:id="rId6"/>
     <sheet name="_Leaders" sheetId="7" r:id="rId7"/>
-    <sheet name="Religions" sheetId="8" r:id="rId8"/>
+    <sheet name="_Religions" sheetId="8" r:id="rId8"/>
     <sheet name="Start_Along_Ocean" sheetId="9" r:id="rId9"/>
     <sheet name="Start_Along_River" sheetId="10" r:id="rId10"/>
     <sheet name="Start_Region_Priority" sheetId="11" r:id="rId11"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="853">
   <si>
     <t>ID</t>
   </si>
@@ -2599,9 +2599,6 @@
   </si>
   <si>
     <t>UNITAI_SETTLE</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2869,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6449,7 +6456,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6747,7 +6754,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7034,10 +7041,10 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7293,10 +7300,10 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7944,6 +7951,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:A47">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9171,7 +9181,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A143">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10306,7 +10316,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A114">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10578,17 +10588,17 @@
   </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -10596,22 +10606,20 @@
       <c r="A1" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>650</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10619,7 +10627,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10627,7 +10635,7 @@
         <v>546</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -10635,7 +10643,7 @@
         <v>453</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -10643,7 +10651,7 @@
         <v>154</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -10651,7 +10659,7 @@
         <v>439</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -10659,7 +10667,7 @@
         <v>560</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -10667,7 +10675,7 @@
         <v>466</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -10675,7 +10683,7 @@
         <v>476</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -10683,7 +10691,7 @@
         <v>168</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -10691,7 +10699,7 @@
         <v>486</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -10699,7 +10707,7 @@
         <v>411</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -10707,7 +10715,7 @@
         <v>182</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -10715,7 +10723,7 @@
         <v>193</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -10723,7 +10731,7 @@
         <v>496</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -10731,7 +10739,7 @@
         <v>204</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -10739,7 +10747,7 @@
         <v>215</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -10747,7 +10755,7 @@
         <v>226</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -10755,7 +10763,7 @@
         <v>506</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -10763,7 +10771,7 @@
         <v>368</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -10771,7 +10779,7 @@
         <v>240</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -10779,7 +10787,7 @@
         <v>571</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -10787,7 +10795,7 @@
         <v>251</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -10795,7 +10803,7 @@
         <v>262</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -10803,7 +10811,7 @@
         <v>425</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -10811,7 +10819,7 @@
         <v>516</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -10819,7 +10827,7 @@
         <v>354</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -10827,7 +10835,7 @@
         <v>582</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -10835,7 +10843,7 @@
         <v>526</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -10843,7 +10851,7 @@
         <v>273</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -10851,7 +10859,7 @@
         <v>284</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -10859,7 +10867,7 @@
         <v>593</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -10867,7 +10875,7 @@
         <v>395</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -10875,7 +10883,7 @@
         <v>604</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -10883,7 +10891,7 @@
         <v>295</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -10891,7 +10899,7 @@
         <v>306</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -10899,7 +10907,7 @@
         <v>317</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -10907,7 +10915,7 @@
         <v>328</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -10915,7 +10923,7 @@
         <v>382</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -10923,7 +10931,7 @@
         <v>536</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -10931,7 +10939,7 @@
         <v>615</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -10939,7 +10947,7 @@
         <v>626</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -10947,7 +10955,7 @@
         <v>637</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -10955,7 +10963,7 @@
         <v>339</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>853</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -10979,13 +10987,14 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="45" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -10993,26 +11002,24 @@
       <c r="A1" s="50" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-    </row>
-    <row r="2" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>779</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>780</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>781</v>
-      </c>
+      <c r="C1" s="47" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -11020,7 +11027,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -11028,7 +11035,7 @@
         <v>546</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -11036,7 +11043,7 @@
         <v>453</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -11044,7 +11051,7 @@
         <v>154</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -11052,7 +11059,7 @@
         <v>439</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -11060,7 +11067,7 @@
         <v>560</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -11068,7 +11075,7 @@
         <v>466</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -11076,7 +11083,7 @@
         <v>476</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -11084,7 +11091,7 @@
         <v>168</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -11092,7 +11099,7 @@
         <v>486</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -11100,7 +11107,7 @@
         <v>411</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -11108,7 +11115,7 @@
         <v>182</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -11116,7 +11123,7 @@
         <v>193</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -11124,7 +11131,7 @@
         <v>496</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -11132,7 +11139,7 @@
         <v>204</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -11140,7 +11147,7 @@
         <v>215</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -11148,7 +11155,7 @@
         <v>226</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -11156,10 +11163,10 @@
         <v>506</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>853</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -11167,7 +11174,7 @@
         <v>368</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -11175,7 +11182,7 @@
         <v>240</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -11183,7 +11190,7 @@
         <v>571</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -11191,7 +11198,7 @@
         <v>251</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -11199,7 +11206,7 @@
         <v>262</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -11207,7 +11214,7 @@
         <v>425</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -11215,7 +11222,7 @@
         <v>516</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -11223,7 +11230,7 @@
         <v>354</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -11231,7 +11238,7 @@
         <v>582</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -11239,7 +11246,7 @@
         <v>526</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -11247,7 +11254,7 @@
         <v>273</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11255,7 +11262,7 @@
         <v>284</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11263,7 +11270,7 @@
         <v>593</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11271,7 +11278,7 @@
         <v>395</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -11279,7 +11286,7 @@
         <v>604</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -11287,7 +11294,7 @@
         <v>295</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -11295,7 +11302,7 @@
         <v>306</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -11303,7 +11310,7 @@
         <v>317</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -11311,7 +11318,7 @@
         <v>328</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -11319,7 +11326,7 @@
         <v>382</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -11327,7 +11334,7 @@
         <v>536</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -11335,7 +11342,7 @@
         <v>615</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -11343,7 +11350,7 @@
         <v>626</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -11351,7 +11358,7 @@
         <v>637</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -11359,7 +11366,7 @@
         <v>339</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -11376,7 +11383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12156,7 +12163,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Original/Tables/NewTU_Civilizations_ORG.xlsx
+++ b/Original/Tables/NewTU_Civilizations_ORG.xlsx
@@ -12160,7 +12160,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" activeCellId="1" sqref="B41 B44"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12171,7 +12171,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>648</v>
       </c>
       <c r="B1" s="46" t="s">
